--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -92,7 +92,7 @@
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +188,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -396,7 +402,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -446,9 +452,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -481,6 +484,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -794,7 +827,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,320 +836,321 @@
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="9" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="30">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="34">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="27">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="34">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="27">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="34">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="B8" s="27">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="34">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="36">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="34">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="27">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="34">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="27">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="27">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="27">
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="36">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="27">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
+      <c r="B16" s="27">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15">
+      <c r="B17" s="27">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="27">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="8"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="36">
         <v>16</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="8"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15">

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -215,151 +215,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -382,6 +243,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -389,12 +424,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="15">
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0">
@@ -402,118 +437,76 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -824,625 +817,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="39.140625" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+    <row r="2" spans="2:9" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+      <c r="B5" s="1">
+        <f>+B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B19" si="0">+B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="36">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
-        <v>22</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
-        <v>30</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
-        <v>32</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
-        <v>34</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
-        <v>35</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
-        <v>36</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
-        <v>37</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
-        <v>38</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
-        <v>39</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16">
-        <v>40</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="13"/>
-    </row>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
